--- a/file-users-example.xlsx
+++ b/file-users-example.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>username</t>
   </si>
@@ -68,15 +68,6 @@
     <t>manager</t>
   </si>
   <si>
-    <t>Iran Alves</t>
-  </si>
-  <si>
-    <t>superuser@gptw.com</t>
-  </si>
-  <si>
-    <t>superuser</t>
-  </si>
-  <si>
     <t>Fulano da Silva</t>
   </si>
   <si>
@@ -96,6 +87,15 @@
   </si>
   <si>
     <t>Operação</t>
+  </si>
+  <si>
+    <t>New user</t>
+  </si>
+  <si>
+    <t>Expedição</t>
+  </si>
+  <si>
+    <t>newuser@yahoo.com.br</t>
   </si>
 </sst>
 </file>
@@ -427,8 +427,8 @@
   <sheetPr codeName="Plan1"/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,30 +505,36 @@
         <v>15</v>
       </c>
       <c r="C4">
-        <v>123456</v>
+        <v>456123</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5">
-        <v>456123</v>
+        <v>123</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -536,16 +542,13 @@
         <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>123</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -557,10 +560,10 @@
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="E2" r:id="rId3"/>
     <hyperlink ref="B4" r:id="rId4"/>
-    <hyperlink ref="B5" r:id="rId5"/>
-    <hyperlink ref="E5" r:id="rId6"/>
-    <hyperlink ref="B6" r:id="rId7"/>
-    <hyperlink ref="E6" r:id="rId8"/>
+    <hyperlink ref="E4" r:id="rId5"/>
+    <hyperlink ref="B5" r:id="rId6"/>
+    <hyperlink ref="E5" r:id="rId7"/>
+    <hyperlink ref="B6" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId9"/>

--- a/file-users-example.xlsx
+++ b/file-users-example.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>username</t>
   </si>
@@ -50,52 +50,13 @@
     <t>User1</t>
   </si>
   <si>
-    <t>User2</t>
-  </si>
-  <si>
     <t>user@gmail.com</t>
   </si>
   <si>
     <t>user2@gmail.com</t>
   </si>
   <si>
-    <t>Controladoria</t>
-  </si>
-  <si>
-    <t>human-resources</t>
-  </si>
-  <si>
-    <t>manager</t>
-  </si>
-  <si>
-    <t>Fulano da Silva</t>
-  </si>
-  <si>
-    <t>fulano@gmail.com</t>
-  </si>
-  <si>
-    <t>Recursos Humanos</t>
-  </si>
-  <si>
-    <t>rh@gmail.com</t>
-  </si>
-  <si>
-    <t>Reginalderson</t>
-  </si>
-  <si>
-    <t>reginal@gmail.com</t>
-  </si>
-  <si>
-    <t>Operação</t>
-  </si>
-  <si>
-    <t>New user</t>
-  </si>
-  <si>
-    <t>Expedição</t>
-  </si>
-  <si>
-    <t>newuser@yahoo.com.br</t>
+    <t>human-resources, manager</t>
   </si>
 </sst>
 </file>
@@ -428,7 +389,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,7 +426,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>123456</v>
@@ -474,98 +435,32 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>456123</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>456123</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5">
-        <v>123</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6">
-        <v>123</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B6" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="E2" r:id="rId3"/>
-    <hyperlink ref="B4" r:id="rId4"/>
-    <hyperlink ref="E4" r:id="rId5"/>
-    <hyperlink ref="B5" r:id="rId6"/>
-    <hyperlink ref="E5" r:id="rId7"/>
-    <hyperlink ref="B6" r:id="rId8"/>
+    <hyperlink ref="E2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/file-users-example.xlsx
+++ b/file-users-example.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>username</t>
   </si>
@@ -41,22 +41,19 @@
     <t>leader</t>
   </si>
   <si>
+    <t>Marketing, Financeiro</t>
+  </si>
+  <si>
+    <t>User1</t>
+  </si>
+  <si>
+    <t>user@gmail.com</t>
+  </si>
+  <si>
+    <t>user2@gmail.com</t>
+  </si>
+  <si>
     <t>type_user</t>
-  </si>
-  <si>
-    <t>Marketing, Financeiro</t>
-  </si>
-  <si>
-    <t>User1</t>
-  </si>
-  <si>
-    <t>user@gmail.com</t>
-  </si>
-  <si>
-    <t>user2@gmail.com</t>
-  </si>
-  <si>
-    <t>human-resources, manager</t>
   </si>
 </sst>
 </file>
@@ -389,7 +386,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,7 +395,6 @@
     <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -418,27 +414,27 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C2">
         <v>123456</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">

--- a/file-users-example.xlsx
+++ b/file-users-example.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>username</t>
   </si>
@@ -54,6 +54,18 @@
   </si>
   <si>
     <t>type_user</t>
+  </si>
+  <si>
+    <t>User3</t>
+  </si>
+  <si>
+    <t>user3@gmail.com</t>
+  </si>
+  <si>
+    <t>Operação</t>
+  </si>
+  <si>
+    <t>user1@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -386,7 +398,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,7 +450,21 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>123456</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
@@ -455,8 +481,10 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="E3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>